--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T12:54:55+00:00</t>
+    <t>2024-05-27T13:06:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:06:19+00:00</t>
+    <t>2024-05-27T13:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:23:31+00:00</t>
+    <t>2024-05-27T13:32:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:32:38+00:00</t>
+    <t>2024-05-28T08:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:43:22+00:00</t>
+    <t>2024-05-28T09:33:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T09:33:56+00:00</t>
+    <t>2024-05-28T13:59:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:59:53+00:00</t>
+    <t>2024-05-29T06:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This AT IPS profile for the Patient resource is derived from the corresponding HL7® Austria FHIR® Core profile and also ensures IPS conformity via the IPS profile referenced by the so-called imposeProfile extension.</t>
+    <t>This AT IPS profile for the Patient resource is derived from the corresponding HL7® Austria FHIR® Core profile and also ensures IPS conformity via the IPS profile referenced by the so-called [`imposeProfile`](http://hl7.org/fhir/StructureDefinition/structuredefinition-imposeProfile) extension.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T06:58:17+00:00</t>
+    <t>2024-05-29T12:02:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9383" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9383" uniqueCount="971">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T12:02:27+00:00</t>
+    <t>2024-06-19T12:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1021,9 +1021,6 @@
   </si>
   <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Social Security Number</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1269,9 +1266,6 @@
     <t>Patient.identifier:bPK.type.coding.display</t>
   </si>
   <si>
-    <t>National unique individual identifier</t>
-  </si>
-  <si>
     <t>Patient.identifier:bPK.type.coding.userSelected</t>
   </si>
   <si>
@@ -1369,9 +1363,6 @@
   </si>
   <si>
     <t>Patient.identifier:localPatientId.type.coding.display</t>
-  </si>
-  <si>
-    <t>Patient internal identifier</t>
   </si>
   <si>
     <t>Patient.identifier:localPatientId.type.coding.userSelected</t>
@@ -9162,49 +9153,49 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -9222,16 +9213,16 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -9239,10 +9230,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -9265,19 +9256,19 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -9326,7 +9317,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -9344,16 +9335,16 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -9361,10 +9352,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9390,16 +9381,16 @@
         <v>218</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -9448,7 +9439,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -9466,16 +9457,16 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -9483,7 +9474,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>239</v>
@@ -9512,7 +9503,7 @@
         <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>241</v>
@@ -9528,7 +9519,7 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>82</v>
@@ -9585,7 +9576,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>246</v>
@@ -9605,7 +9596,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>248</v>
@@ -9705,7 +9696,7 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>254</v>
@@ -9725,7 +9716,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>256</v>
@@ -9843,7 +9834,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>262</v>
@@ -9963,10 +9954,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -10081,10 +10072,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -10201,10 +10192,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -10230,13 +10221,13 @@
         <v>218</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -10286,16 +10277,16 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
@@ -10321,10 +10312,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10350,13 +10341,13 @@
         <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -10385,28 +10376,28 @@
         <v>178</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Z59" t="s" s="2">
+      <c r="AA59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -10441,10 +10432,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10470,13 +10461,13 @@
         <v>208</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -10526,7 +10517,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -10544,7 +10535,7 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>82</v>
@@ -10561,10 +10552,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10590,13 +10581,13 @@
         <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -10604,49 +10595,49 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -10681,13 +10672,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>207</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>82</v>
@@ -10803,7 +10794,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>217</v>
@@ -10921,7 +10912,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>219</v>
@@ -11041,7 +11032,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>221</v>
@@ -11163,7 +11154,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>231</v>
@@ -11283,7 +11274,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>277</v>
@@ -11401,7 +11392,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>279</v>
@@ -11521,7 +11512,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>281</v>
@@ -11643,7 +11634,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>291</v>
@@ -11761,7 +11752,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>293</v>
@@ -11881,7 +11872,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>295</v>
@@ -12003,7 +11994,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>305</v>
@@ -12123,7 +12114,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>313</v>
@@ -12166,7 +12157,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>82</v>
@@ -12243,7 +12234,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>322</v>
@@ -12286,7 +12277,7 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>82</v>
@@ -12328,7 +12319,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -12346,16 +12337,16 @@
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>82</v>
@@ -12363,10 +12354,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12389,19 +12380,19 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N76" t="s" s="2">
+      <c r="O76" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -12450,7 +12441,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -12468,16 +12459,16 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO76" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -12485,10 +12476,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12514,16 +12505,16 @@
         <v>218</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -12572,7 +12563,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -12590,16 +12581,16 @@
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>82</v>
@@ -12607,7 +12598,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>239</v>
@@ -12636,7 +12627,7 @@
         <v>103</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>241</v>
@@ -12652,7 +12643,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>82</v>
@@ -12709,7 +12700,7 @@
         <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>246</v>
@@ -12729,7 +12720,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>248</v>
@@ -12829,7 +12820,7 @@
         <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>254</v>
@@ -12849,7 +12840,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>256</v>
@@ -12967,7 +12958,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>262</v>
@@ -13087,10 +13078,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13205,10 +13196,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13325,10 +13316,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13354,13 +13345,13 @@
         <v>218</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -13410,16 +13401,16 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI84" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>101</v>
@@ -13445,10 +13436,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13474,13 +13465,13 @@
         <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -13509,28 +13500,28 @@
         <v>178</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z85" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Z85" t="s" s="2">
+      <c r="AA85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF85" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -13565,10 +13556,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13594,13 +13585,13 @@
         <v>208</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -13650,7 +13641,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -13668,7 +13659,7 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>82</v>
@@ -13685,10 +13676,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13714,13 +13705,13 @@
         <v>218</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -13728,7 +13719,7 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>82</v>
@@ -13770,7 +13761,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -13805,13 +13796,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>207</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>82</v>
@@ -13927,7 +13918,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>217</v>
@@ -14045,7 +14036,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>219</v>
@@ -14165,7 +14156,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>221</v>
@@ -14287,7 +14278,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>231</v>
@@ -14407,7 +14398,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>277</v>
@@ -14525,7 +14516,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>279</v>
@@ -14645,7 +14636,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>281</v>
@@ -14767,7 +14758,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>291</v>
@@ -14885,7 +14876,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>293</v>
@@ -15005,7 +14996,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>295</v>
@@ -15127,7 +15118,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>305</v>
@@ -15247,7 +15238,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>313</v>
@@ -15290,7 +15281,7 @@
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>82</v>
@@ -15367,7 +15358,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>322</v>
@@ -15410,7 +15401,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>82</v>
@@ -15452,7 +15443,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -15470,16 +15461,16 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>82</v>
@@ -15487,10 +15478,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15513,19 +15504,19 @@
         <v>90</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -15574,7 +15565,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -15592,16 +15583,16 @@
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO102" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>82</v>
@@ -15609,10 +15600,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15638,16 +15629,16 @@
         <v>218</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>82</v>
@@ -15696,7 +15687,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -15714,16 +15705,16 @@
         <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO103" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>82</v>
@@ -15731,7 +15722,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>239</v>
@@ -15760,7 +15751,7 @@
         <v>103</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>241</v>
@@ -15833,7 +15824,7 @@
         <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>246</v>
@@ -15853,7 +15844,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>248</v>
@@ -15953,7 +15944,7 @@
         <v>101</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>254</v>
@@ -15973,7 +15964,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>256</v>
@@ -16091,7 +16082,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>262</v>
@@ -16211,10 +16202,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16237,26 +16228,26 @@
         <v>90</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O108" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="P108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q108" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="N108" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q108" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="R108" t="s" s="2">
         <v>82</v>
       </c>
@@ -16300,7 +16291,7 @@
         <v>82</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>80</v>
@@ -16318,13 +16309,13 @@
         <v>152</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>82</v>
@@ -16335,10 +16326,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16361,19 +16352,19 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N109" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -16422,7 +16413,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>80</v>
@@ -16437,19 +16428,19 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>82</v>
@@ -16457,10 +16448,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16575,10 +16566,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16695,10 +16686,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16724,16 +16715,16 @@
         <v>109</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O112" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -16761,10 +16752,10 @@
         <v>226</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>82</v>
@@ -16782,7 +16773,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16800,7 +16791,7 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>82</v>
@@ -16809,7 +16800,7 @@
         <v>82</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AP112" t="s" s="2">
         <v>82</v>
@@ -16817,10 +16808,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16846,16 +16837,16 @@
         <v>218</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O113" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>82</v>
@@ -16904,7 +16895,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16922,7 +16913,7 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>82</v>
@@ -16931,7 +16922,7 @@
         <v>82</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AP113" t="s" s="2">
         <v>82</v>
@@ -16939,14 +16930,14 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16968,13 +16959,13 @@
         <v>218</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -17024,7 +17015,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
@@ -17039,10 +17030,10 @@
         <v>101</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>82</v>
@@ -17051,7 +17042,7 @@
         <v>82</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AP114" t="s" s="2">
         <v>82</v>
@@ -17059,14 +17050,14 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
@@ -17088,13 +17079,13 @@
         <v>218</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -17144,7 +17135,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>80</v>
@@ -17159,10 +17150,10 @@
         <v>101</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>82</v>
@@ -17171,7 +17162,7 @@
         <v>82</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AP115" t="s" s="2">
         <v>82</v>
@@ -17179,10 +17170,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -17208,10 +17199,10 @@
         <v>218</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -17262,7 +17253,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>80</v>
@@ -17277,10 +17268,10 @@
         <v>101</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>82</v>
@@ -17289,7 +17280,7 @@
         <v>82</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AP116" t="s" s="2">
         <v>82</v>
@@ -17297,10 +17288,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -17326,10 +17317,10 @@
         <v>218</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -17380,7 +17371,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>80</v>
@@ -17395,10 +17386,10 @@
         <v>101</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>82</v>
@@ -17407,7 +17398,7 @@
         <v>82</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AP117" t="s" s="2">
         <v>82</v>
@@ -17415,10 +17406,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17444,14 +17435,14 @@
         <v>190</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>82</v>
@@ -17500,7 +17491,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>80</v>
@@ -17518,7 +17509,7 @@
         <v>82</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>82</v>
@@ -17527,7 +17518,7 @@
         <v>82</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AP118" t="s" s="2">
         <v>82</v>
@@ -17535,10 +17526,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17561,19 +17552,19 @@
         <v>90</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N119" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="O119" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>82</v>
@@ -17622,7 +17613,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>80</v>
@@ -17640,16 +17631,16 @@
         <v>82</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AP119" t="s" s="2">
         <v>82</v>
@@ -17657,10 +17648,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17775,10 +17766,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17895,10 +17886,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17924,10 +17915,10 @@
         <v>109</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -17957,46 +17948,46 @@
         <v>226</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI122" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>82</v>
@@ -18005,7 +17996,7 @@
         <v>82</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AP122" t="s" s="2">
         <v>82</v>
@@ -18013,10 +18004,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -18042,16 +18033,16 @@
         <v>218</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O123" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>82</v>
@@ -18100,7 +18091,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>80</v>
@@ -18115,10 +18106,10 @@
         <v>101</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>82</v>
@@ -18127,7 +18118,7 @@
         <v>82</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AP123" t="s" s="2">
         <v>82</v>
@@ -18135,10 +18126,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18164,16 +18155,16 @@
         <v>109</v>
       </c>
       <c r="L124" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O124" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>82</v>
@@ -18201,10 +18192,10 @@
         <v>226</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>82</v>
@@ -18222,7 +18213,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>80</v>
@@ -18237,10 +18228,10 @@
         <v>101</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>82</v>
@@ -18249,7 +18240,7 @@
         <v>82</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AP124" t="s" s="2">
         <v>82</v>
@@ -18257,10 +18248,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -18283,16 +18274,16 @@
         <v>90</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N125" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -18342,7 +18333,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>80</v>
@@ -18377,10 +18368,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18406,10 +18397,10 @@
         <v>190</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18460,7 +18451,7 @@
         <v>82</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>80</v>
@@ -18478,7 +18469,7 @@
         <v>82</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>82</v>
@@ -18495,10 +18486,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18524,16 +18515,16 @@
         <v>109</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O127" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>82</v>
@@ -18561,10 +18552,10 @@
         <v>226</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Z127" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AA127" t="s" s="2">
         <v>82</v>
@@ -18582,7 +18573,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>80</v>
@@ -18597,19 +18588,19 @@
         <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO127" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>585</v>
       </c>
       <c r="AP127" t="s" s="2">
         <v>82</v>
@@ -18617,10 +18608,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18646,10 +18637,10 @@
         <v>218</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -18735,10 +18726,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18851,13 +18842,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>82</v>
@@ -18879,13 +18870,13 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -18971,10 +18962,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -19000,10 +18991,10 @@
         <v>218</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -19054,7 +19045,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>80</v>
@@ -19089,10 +19080,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -19115,19 +19106,19 @@
         <v>90</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="O132" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O132" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>82</v>
@@ -19176,7 +19167,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>80</v>
@@ -19191,30 +19182,30 @@
         <v>101</v>
       </c>
       <c r="AK132" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO132" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AL132" t="s" s="2">
+      <c r="AP132" t="s" s="2">
         <v>605</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AP132" t="s" s="2">
-        <v>608</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19237,19 +19228,19 @@
         <v>90</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N133" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O133" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -19286,17 +19277,17 @@
         <v>82</v>
       </c>
       <c r="AB133" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AC133" s="2"/>
       <c r="AD133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19314,7 +19305,7 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>152</v>
@@ -19323,7 +19314,7 @@
         <v>82</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AP133" t="s" s="2">
         <v>82</v>
@@ -19331,13 +19322,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D134" t="s" s="2">
         <v>82</v>
@@ -19359,19 +19350,19 @@
         <v>90</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M134" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O134" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19420,7 +19411,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19435,10 +19426,10 @@
         <v>101</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>152</v>
@@ -19447,7 +19438,7 @@
         <v>82</v>
       </c>
       <c r="AO134" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -19455,13 +19446,13 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19483,19 +19474,19 @@
         <v>90</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O135" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19544,7 +19535,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19559,10 +19550,10 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>152</v>
@@ -19571,7 +19562,7 @@
         <v>82</v>
       </c>
       <c r="AO135" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19579,10 +19570,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19605,19 +19596,19 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>82</v>
@@ -19666,7 +19657,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>80</v>
@@ -19678,13 +19669,13 @@
         <v>151</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>82</v>
@@ -19693,7 +19684,7 @@
         <v>82</v>
       </c>
       <c r="AO136" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AP136" t="s" s="2">
         <v>82</v>
@@ -19701,10 +19692,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19819,10 +19810,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19939,10 +19930,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19968,16 +19959,16 @@
         <v>109</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O139" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O139" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>82</v>
@@ -19990,7 +19981,7 @@
         <v>82</v>
       </c>
       <c r="T139" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="U139" t="s" s="2">
         <v>82</v>
@@ -20005,10 +19996,10 @@
         <v>226</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>82</v>
@@ -20026,7 +20017,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -20041,10 +20032,10 @@
         <v>101</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>82</v>
@@ -20053,7 +20044,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -20061,10 +20052,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20090,13 +20081,13 @@
         <v>109</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -20110,7 +20101,7 @@
         <v>82</v>
       </c>
       <c r="T140" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="U140" t="s" s="2">
         <v>82</v>
@@ -20125,10 +20116,10 @@
         <v>226</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>82</v>
@@ -20146,7 +20137,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -20164,7 +20155,7 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>82</v>
@@ -20173,7 +20164,7 @@
         <v>82</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -20181,10 +20172,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -20210,16 +20201,16 @@
         <v>218</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>82</v>
@@ -20232,7 +20223,7 @@
         <v>82</v>
       </c>
       <c r="T141" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="U141" t="s" s="2">
         <v>82</v>
@@ -20268,7 +20259,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20283,10 +20274,10 @@
         <v>101</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>82</v>
@@ -20295,7 +20286,7 @@
         <v>82</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20303,10 +20294,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20332,10 +20323,10 @@
         <v>218</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20350,7 +20341,7 @@
         <v>82</v>
       </c>
       <c r="T142" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U142" t="s" s="2">
         <v>82</v>
@@ -20386,7 +20377,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20401,10 +20392,10 @@
         <v>101</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20413,7 +20404,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20421,10 +20412,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20450,10 +20441,10 @@
         <v>218</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20539,10 +20530,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20655,13 +20646,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20683,13 +20674,13 @@
         <v>82</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -20758,7 +20749,7 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>82</v>
@@ -20775,13 +20766,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D146" t="s" s="2">
         <v>82</v>
@@ -20803,13 +20794,13 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -20878,7 +20869,7 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>82</v>
@@ -20895,13 +20886,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D147" t="s" s="2">
         <v>82</v>
@@ -20923,13 +20914,13 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -20998,7 +20989,7 @@
         <v>82</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>82</v>
@@ -21015,13 +21006,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -21043,13 +21034,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -21135,10 +21126,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21164,10 +21155,10 @@
         <v>218</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -21191,7 +21182,7 @@
         <v>82</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="X149" t="s" s="2">
         <v>82</v>
@@ -21218,7 +21209,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21253,14 +21244,14 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -21282,10 +21273,10 @@
         <v>218</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21300,7 +21291,7 @@
         <v>82</v>
       </c>
       <c r="T150" t="s" s="2">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="U150" t="s" s="2">
         <v>82</v>
@@ -21336,7 +21327,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21351,10 +21342,10 @@
         <v>101</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>82</v>
@@ -21363,7 +21354,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21371,14 +21362,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21400,13 +21391,13 @@
         <v>218</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21420,7 +21411,7 @@
         <v>82</v>
       </c>
       <c r="T151" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="U151" t="s" s="2">
         <v>82</v>
@@ -21456,7 +21447,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21474,7 +21465,7 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21483,7 +21474,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21491,14 +21482,14 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21520,10 +21511,10 @@
         <v>218</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -21574,7 +21565,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21589,10 +21580,10 @@
         <v>101</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
@@ -21601,7 +21592,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21609,14 +21600,14 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
@@ -21638,10 +21629,10 @@
         <v>218</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21656,7 +21647,7 @@
         <v>82</v>
       </c>
       <c r="T153" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="U153" t="s" s="2">
         <v>82</v>
@@ -21692,7 +21683,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21707,10 +21698,10 @@
         <v>101</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>82</v>
@@ -21719,7 +21710,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21727,10 +21718,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21756,13 +21747,13 @@
         <v>218</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -21812,7 +21803,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21827,10 +21818,10 @@
         <v>101</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>82</v>
@@ -21839,7 +21830,7 @@
         <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>82</v>
@@ -21847,10 +21838,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21876,14 +21867,14 @@
         <v>190</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21896,7 +21887,7 @@
         <v>82</v>
       </c>
       <c r="T155" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="U155" t="s" s="2">
         <v>82</v>
@@ -21932,7 +21923,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21950,7 +21941,7 @@
         <v>82</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>82</v>
@@ -21959,7 +21950,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21967,10 +21958,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21996,14 +21987,14 @@
         <v>175</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -22031,10 +22022,10 @@
         <v>178</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>82</v>
@@ -22052,7 +22043,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -22070,16 +22061,16 @@
         <v>82</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
@@ -22087,10 +22078,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -22205,10 +22196,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22325,10 +22316,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22447,10 +22438,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22565,10 +22556,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22685,10 +22676,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22787,7 +22778,7 @@
         <v>101</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>302</v>
@@ -22807,10 +22798,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22927,10 +22918,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -23027,7 +23018,7 @@
         <v>101</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>319</v>
@@ -23047,10 +23038,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23132,7 +23123,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -23147,19 +23138,19 @@
         <v>101</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="AL165" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO165" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO165" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP165" t="s" s="2">
         <v>82</v>
@@ -23167,10 +23158,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23193,19 +23184,19 @@
         <v>90</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L166" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L166" t="s" s="2">
+      <c r="M166" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N166" t="s" s="2">
+      <c r="O166" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -23254,7 +23245,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -23272,16 +23263,16 @@
         <v>82</v>
       </c>
       <c r="AL166" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO166" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM166" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO166" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP166" t="s" s="2">
         <v>82</v>
@@ -23289,10 +23280,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23318,16 +23309,16 @@
         <v>218</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N167" t="s" s="2">
+      <c r="O167" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -23376,7 +23367,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -23394,16 +23385,16 @@
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN167" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO167" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM167" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN167" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO167" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23411,10 +23402,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23437,19 +23428,19 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L168" t="s" s="2">
+      <c r="O168" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O168" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
@@ -23486,17 +23477,17 @@
         <v>82</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AC168" s="2"/>
       <c r="AD168" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23514,7 +23505,7 @@
         <v>82</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>152</v>
@@ -23523,7 +23514,7 @@
         <v>82</v>
       </c>
       <c r="AO168" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AP168" t="s" s="2">
         <v>82</v>
@@ -23531,13 +23522,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>82</v>
@@ -23559,19 +23550,19 @@
         <v>82</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L169" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M169" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N169" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="O169" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="M169" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23620,7 +23611,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23638,7 +23629,7 @@
         <v>152</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>152</v>
@@ -23647,7 +23638,7 @@
         <v>82</v>
       </c>
       <c r="AO169" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AP169" t="s" s="2">
         <v>82</v>
@@ -23655,13 +23646,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>82</v>
@@ -23683,19 +23674,19 @@
         <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="M170" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="N170" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="O170" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23744,7 +23735,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23762,7 +23753,7 @@
         <v>152</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>152</v>
@@ -23771,7 +23762,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23779,10 +23770,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23805,19 +23796,19 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="N171" t="s" s="2">
         <v>788</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>789</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>791</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>792</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23866,7 +23857,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23884,7 +23875,7 @@
         <v>152</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>152</v>
@@ -23893,7 +23884,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23901,10 +23892,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23927,19 +23918,19 @@
         <v>82</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M172" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>796</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>797</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23988,7 +23979,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -24000,13 +23991,13 @@
         <v>82</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>152</v>
@@ -24023,10 +24014,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -24141,10 +24132,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24261,14 +24252,14 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
@@ -24290,10 +24281,10 @@
         <v>134</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>158</v>
@@ -24348,7 +24339,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24383,10 +24374,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24412,14 +24403,14 @@
         <v>175</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24447,10 +24438,10 @@
         <v>178</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -24468,7 +24459,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24495,7 +24486,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24503,10 +24494,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24621,10 +24612,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24741,10 +24732,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24863,10 +24854,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24981,10 +24972,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25101,10 +25092,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -25203,7 +25194,7 @@
         <v>101</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AL182" t="s" s="2">
         <v>302</v>
@@ -25223,10 +25214,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25343,10 +25334,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25443,7 +25434,7 @@
         <v>101</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AL184" t="s" s="2">
         <v>319</v>
@@ -25463,10 +25454,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25548,7 +25539,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25563,19 +25554,19 @@
         <v>101</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="AL185" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AM185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN185" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO185" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN185" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO185" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25583,10 +25574,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25609,19 +25600,19 @@
         <v>90</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L186" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25670,7 +25661,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25688,16 +25679,16 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN186" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO186" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN186" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO186" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP186" t="s" s="2">
         <v>82</v>
@@ -25705,10 +25696,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25734,16 +25725,16 @@
         <v>218</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M187" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="N187" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25792,7 +25783,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25810,16 +25801,16 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AM187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN187" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO187" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN187" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO187" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP187" t="s" s="2">
         <v>82</v>
@@ -25827,10 +25818,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25853,17 +25844,17 @@
         <v>82</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>82</v>
@@ -25912,7 +25903,7 @@
         <v>82</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
@@ -25930,7 +25921,7 @@
         <v>82</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AM188" t="s" s="2">
         <v>152</v>
@@ -25939,7 +25930,7 @@
         <v>82</v>
       </c>
       <c r="AO188" t="s" s="2">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="AP188" t="s" s="2">
         <v>82</v>
@@ -25947,10 +25938,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -26065,10 +26056,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26185,10 +26176,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26214,16 +26205,16 @@
         <v>109</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O191" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>82</v>
@@ -26251,10 +26242,10 @@
         <v>226</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Z191" t="s" s="2">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>82</v>
@@ -26272,7 +26263,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
@@ -26290,7 +26281,7 @@
         <v>82</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>82</v>
@@ -26299,7 +26290,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26307,10 +26298,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26336,16 +26327,16 @@
         <v>218</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O192" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -26394,7 +26385,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26412,7 +26403,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>82</v>
@@ -26421,7 +26412,7 @@
         <v>82</v>
       </c>
       <c r="AO192" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AP192" t="s" s="2">
         <v>82</v>
@@ -26429,14 +26420,14 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
@@ -26458,13 +26449,13 @@
         <v>218</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -26514,7 +26505,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26529,10 +26520,10 @@
         <v>101</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>82</v>
@@ -26541,7 +26532,7 @@
         <v>82</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="AP193" t="s" s="2">
         <v>82</v>
@@ -26549,14 +26540,14 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
@@ -26578,13 +26569,13 @@
         <v>218</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
@@ -26634,7 +26625,7 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -26649,10 +26640,10 @@
         <v>101</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>82</v>
@@ -26661,7 +26652,7 @@
         <v>82</v>
       </c>
       <c r="AO194" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AP194" t="s" s="2">
         <v>82</v>
@@ -26669,10 +26660,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26698,10 +26689,10 @@
         <v>218</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
@@ -26752,7 +26743,7 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -26770,7 +26761,7 @@
         <v>82</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>82</v>
@@ -26779,7 +26770,7 @@
         <v>82</v>
       </c>
       <c r="AO195" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AP195" t="s" s="2">
         <v>82</v>
@@ -26787,10 +26778,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26816,10 +26807,10 @@
         <v>218</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
@@ -26870,7 +26861,7 @@
         <v>82</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
@@ -26888,7 +26879,7 @@
         <v>82</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>82</v>
@@ -26897,7 +26888,7 @@
         <v>82</v>
       </c>
       <c r="AO196" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AP196" t="s" s="2">
         <v>82</v>
@@ -26905,10 +26896,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26934,14 +26925,14 @@
         <v>190</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="P197" t="s" s="2">
         <v>82</v>
@@ -26990,7 +26981,7 @@
         <v>82</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>80</v>
@@ -27008,7 +26999,7 @@
         <v>82</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM197" t="s" s="2">
         <v>82</v>
@@ -27017,7 +27008,7 @@
         <v>82</v>
       </c>
       <c r="AO197" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AP197" t="s" s="2">
         <v>82</v>
@@ -27025,10 +27016,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27051,19 +27042,19 @@
         <v>82</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P198" t="s" s="2">
         <v>82</v>
@@ -27112,7 +27103,7 @@
         <v>82</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -27130,7 +27121,7 @@
         <v>82</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>152</v>
@@ -27139,7 +27130,7 @@
         <v>82</v>
       </c>
       <c r="AO198" t="s" s="2">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AP198" t="s" s="2">
         <v>82</v>
@@ -27147,10 +27138,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27265,10 +27256,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27385,10 +27376,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27414,10 +27405,10 @@
         <v>109</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
@@ -27447,46 +27438,46 @@
         <v>226</v>
       </c>
       <c r="Y201" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z201" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AA201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE201" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF201" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG201" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH201" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI201" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="Z201" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AA201" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB201" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD201" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE201" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF201" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG201" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH201" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI201" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK201" t="s" s="2">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AM201" t="s" s="2">
         <v>82</v>
@@ -27495,7 +27486,7 @@
         <v>82</v>
       </c>
       <c r="AO201" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AP201" t="s" s="2">
         <v>82</v>
@@ -27503,10 +27494,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27532,16 +27523,16 @@
         <v>218</v>
       </c>
       <c r="L202" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M202" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O202" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M202" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="O202" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>82</v>
@@ -27590,7 +27581,7 @@
         <v>82</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
@@ -27605,10 +27596,10 @@
         <v>101</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="AL202" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AM202" t="s" s="2">
         <v>82</v>
@@ -27617,7 +27608,7 @@
         <v>82</v>
       </c>
       <c r="AO202" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AP202" t="s" s="2">
         <v>82</v>
@@ -27625,10 +27616,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27654,16 +27645,16 @@
         <v>109</v>
       </c>
       <c r="L203" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O203" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>82</v>
@@ -27691,10 +27682,10 @@
         <v>226</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AA203" t="s" s="2">
         <v>82</v>
@@ -27712,7 +27703,7 @@
         <v>82</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
@@ -27727,10 +27718,10 @@
         <v>101</v>
       </c>
       <c r="AK203" t="s" s="2">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>82</v>
@@ -27739,7 +27730,7 @@
         <v>82</v>
       </c>
       <c r="AO203" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AP203" t="s" s="2">
         <v>82</v>
@@ -27747,10 +27738,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27773,16 +27764,16 @@
         <v>90</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L204" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
@@ -27832,7 +27823,7 @@
         <v>82</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -27867,10 +27858,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27896,10 +27887,10 @@
         <v>190</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -27950,7 +27941,7 @@
         <v>82</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -27968,7 +27959,7 @@
         <v>82</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>82</v>
@@ -27985,10 +27976,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28011,19 +28002,19 @@
         <v>82</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L206" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M206" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="N206" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L206" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M206" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>630</v>
-      </c>
       <c r="O206" t="s" s="2">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>82</v>
@@ -28072,7 +28063,7 @@
         <v>82</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
@@ -28084,13 +28075,13 @@
         <v>151</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>82</v>
@@ -28099,7 +28090,7 @@
         <v>82</v>
       </c>
       <c r="AO206" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AP206" t="s" s="2">
         <v>82</v>
@@ -28107,10 +28098,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28225,10 +28216,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28345,10 +28336,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28374,16 +28365,16 @@
         <v>109</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="M209" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="N209" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="O209" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M209" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>82</v>
@@ -28396,7 +28387,7 @@
         <v>82</v>
       </c>
       <c r="T209" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="U209" t="s" s="2">
         <v>82</v>
@@ -28411,10 +28402,10 @@
         <v>226</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Z209" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AA209" t="s" s="2">
         <v>82</v>
@@ -28432,7 +28423,7 @@
         <v>82</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -28447,10 +28438,10 @@
         <v>101</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="AL209" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM209" t="s" s="2">
         <v>82</v>
@@ -28459,7 +28450,7 @@
         <v>82</v>
       </c>
       <c r="AO209" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AP209" t="s" s="2">
         <v>82</v>
@@ -28467,10 +28458,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -28496,13 +28487,13 @@
         <v>109</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
@@ -28516,7 +28507,7 @@
         <v>82</v>
       </c>
       <c r="T210" t="s" s="2">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="U210" t="s" s="2">
         <v>82</v>
@@ -28531,10 +28522,10 @@
         <v>226</v>
       </c>
       <c r="Y210" t="s" s="2">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="Z210" t="s" s="2">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>82</v>
@@ -28552,7 +28543,7 @@
         <v>82</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
@@ -28570,7 +28561,7 @@
         <v>82</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AM210" t="s" s="2">
         <v>82</v>
@@ -28579,7 +28570,7 @@
         <v>82</v>
       </c>
       <c r="AO210" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AP210" t="s" s="2">
         <v>82</v>
@@ -28587,10 +28578,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -28616,16 +28607,16 @@
         <v>218</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>82</v>
@@ -28638,7 +28629,7 @@
         <v>82</v>
       </c>
       <c r="T211" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="U211" t="s" s="2">
         <v>82</v>
@@ -28674,7 +28665,7 @@
         <v>82</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
@@ -28689,10 +28680,10 @@
         <v>101</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>82</v>
@@ -28701,7 +28692,7 @@
         <v>82</v>
       </c>
       <c r="AO211" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AP211" t="s" s="2">
         <v>82</v>
@@ -28709,10 +28700,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -28738,10 +28729,10 @@
         <v>218</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -28756,7 +28747,7 @@
         <v>82</v>
       </c>
       <c r="T212" t="s" s="2">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="U212" t="s" s="2">
         <v>82</v>
@@ -28792,7 +28783,7 @@
         <v>82</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -28807,10 +28798,10 @@
         <v>101</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AM212" t="s" s="2">
         <v>82</v>
@@ -28819,7 +28810,7 @@
         <v>82</v>
       </c>
       <c r="AO212" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AP212" t="s" s="2">
         <v>82</v>
@@ -28827,10 +28818,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -28856,10 +28847,10 @@
         <v>218</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -28945,10 +28936,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29061,13 +29052,13 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D215" t="s" s="2">
         <v>82</v>
@@ -29089,13 +29080,13 @@
         <v>82</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -29164,7 +29155,7 @@
         <v>82</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>82</v>
@@ -29181,13 +29172,13 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D216" t="s" s="2">
         <v>82</v>
@@ -29209,13 +29200,13 @@
         <v>82</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -29284,7 +29275,7 @@
         <v>82</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>82</v>
@@ -29301,13 +29292,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>82</v>
@@ -29329,13 +29320,13 @@
         <v>82</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -29404,7 +29395,7 @@
         <v>82</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>82</v>
@@ -29421,13 +29412,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>82</v>
@@ -29449,13 +29440,13 @@
         <v>82</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -29541,10 +29532,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -29570,10 +29561,10 @@
         <v>218</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -29597,7 +29588,7 @@
         <v>82</v>
       </c>
       <c r="W219" t="s" s="2">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="X219" t="s" s="2">
         <v>82</v>
@@ -29624,7 +29615,7 @@
         <v>82</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
@@ -29659,14 +29650,14 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E220" s="2"/>
       <c r="F220" t="s" s="2">
@@ -29688,10 +29679,10 @@
         <v>218</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -29706,7 +29697,7 @@
         <v>82</v>
       </c>
       <c r="T220" t="s" s="2">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="U220" t="s" s="2">
         <v>82</v>
@@ -29742,7 +29733,7 @@
         <v>82</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
@@ -29757,10 +29748,10 @@
         <v>101</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="AM220" t="s" s="2">
         <v>82</v>
@@ -29769,7 +29760,7 @@
         <v>82</v>
       </c>
       <c r="AO220" t="s" s="2">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="AP220" t="s" s="2">
         <v>82</v>
@@ -29777,14 +29768,14 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E221" s="2"/>
       <c r="F221" t="s" s="2">
@@ -29806,13 +29797,13 @@
         <v>218</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
@@ -29826,7 +29817,7 @@
         <v>82</v>
       </c>
       <c r="T221" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="U221" t="s" s="2">
         <v>82</v>
@@ -29862,7 +29853,7 @@
         <v>82</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -29880,7 +29871,7 @@
         <v>82</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AM221" t="s" s="2">
         <v>82</v>
@@ -29889,7 +29880,7 @@
         <v>82</v>
       </c>
       <c r="AO221" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="AP221" t="s" s="2">
         <v>82</v>
@@ -29897,14 +29888,14 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
@@ -29926,10 +29917,10 @@
         <v>218</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
@@ -29980,7 +29971,7 @@
         <v>82</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>80</v>
@@ -29995,10 +29986,10 @@
         <v>101</v>
       </c>
       <c r="AK222" t="s" s="2">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>82</v>
@@ -30007,7 +29998,7 @@
         <v>82</v>
       </c>
       <c r="AO222" t="s" s="2">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="AP222" t="s" s="2">
         <v>82</v>
@@ -30015,14 +30006,14 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
@@ -30044,10 +30035,10 @@
         <v>218</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -30062,7 +30053,7 @@
         <v>82</v>
       </c>
       <c r="T223" t="s" s="2">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="U223" t="s" s="2">
         <v>82</v>
@@ -30098,7 +30089,7 @@
         <v>82</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>80</v>
@@ -30113,10 +30104,10 @@
         <v>101</v>
       </c>
       <c r="AK223" t="s" s="2">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>82</v>
@@ -30125,7 +30116,7 @@
         <v>82</v>
       </c>
       <c r="AO223" t="s" s="2">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AP223" t="s" s="2">
         <v>82</v>
@@ -30133,10 +30124,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -30162,13 +30153,13 @@
         <v>218</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
@@ -30218,7 +30209,7 @@
         <v>82</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
@@ -30233,10 +30224,10 @@
         <v>101</v>
       </c>
       <c r="AK224" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>82</v>
@@ -30245,7 +30236,7 @@
         <v>82</v>
       </c>
       <c r="AO224" t="s" s="2">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AP224" t="s" s="2">
         <v>82</v>
@@ -30253,10 +30244,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30282,14 +30273,14 @@
         <v>190</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" t="s" s="2">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>82</v>
@@ -30302,7 +30293,7 @@
         <v>82</v>
       </c>
       <c r="T225" t="s" s="2">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="U225" t="s" s="2">
         <v>82</v>
@@ -30338,7 +30329,7 @@
         <v>82</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>80</v>
@@ -30356,7 +30347,7 @@
         <v>82</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AM225" t="s" s="2">
         <v>82</v>
@@ -30365,7 +30356,7 @@
         <v>82</v>
       </c>
       <c r="AO225" t="s" s="2">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="AP225" t="s" s="2">
         <v>82</v>
@@ -30373,10 +30364,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -30402,14 +30393,14 @@
         <v>109</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>82</v>
@@ -30437,10 +30428,10 @@
         <v>226</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>82</v>
@@ -30458,7 +30449,7 @@
         <v>82</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>80</v>
@@ -30476,7 +30467,7 @@
         <v>152</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AM226" t="s" s="2">
         <v>152</v>
@@ -30485,7 +30476,7 @@
         <v>82</v>
       </c>
       <c r="AO226" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="AP226" t="s" s="2">
         <v>82</v>
@@ -30493,10 +30484,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -30522,10 +30513,10 @@
         <v>218</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -30611,10 +30602,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -30727,13 +30718,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>82</v>
@@ -30755,13 +30746,13 @@
         <v>82</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -30847,10 +30838,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -30876,10 +30867,10 @@
         <v>218</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
@@ -30930,7 +30921,7 @@
         <v>82</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>80</v>
@@ -30965,10 +30956,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -30994,14 +30985,14 @@
         <v>263</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="P231" t="s" s="2">
         <v>82</v>
@@ -31050,7 +31041,7 @@
         <v>82</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>80</v>
@@ -31059,16 +31050,16 @@
         <v>89</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="AJ231" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>152</v>
@@ -31077,7 +31068,7 @@
         <v>82</v>
       </c>
       <c r="AO231" t="s" s="2">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="AP231" t="s" s="2">
         <v>82</v>
@@ -31085,10 +31076,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31114,10 +31105,10 @@
         <v>190</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -31168,7 +31159,7 @@
         <v>82</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>80</v>
@@ -31186,7 +31177,7 @@
         <v>152</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="AM232" t="s" s="2">
         <v>152</v>
@@ -31203,10 +31194,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31229,19 +31220,19 @@
         <v>82</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="O233" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>914</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>82</v>
@@ -31290,7 +31281,7 @@
         <v>82</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>80</v>
@@ -31308,10 +31299,10 @@
         <v>82</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="AM233" t="s" s="2">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="AN233" t="s" s="2">
         <v>82</v>
@@ -31325,10 +31316,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31443,10 +31434,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -31563,14 +31554,14 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" t="s" s="2">
@@ -31592,10 +31583,10 @@
         <v>134</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="N236" t="s" s="2">
         <v>158</v>
@@ -31650,7 +31641,7 @@
         <v>82</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>80</v>
@@ -31685,10 +31676,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -31714,16 +31705,16 @@
         <v>175</v>
       </c>
       <c r="L237" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>920</v>
+      </c>
+      <c r="O237" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="P237" t="s" s="2">
         <v>82</v>
@@ -31772,7 +31763,7 @@
         <v>82</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>89</v>
@@ -31787,19 +31778,19 @@
         <v>101</v>
       </c>
       <c r="AK237" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="AL237" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="AM237" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="AN237" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO237" t="s" s="2">
         <v>925</v>
-      </c>
-      <c r="AL237" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="AM237" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="AN237" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO237" t="s" s="2">
-        <v>928</v>
       </c>
       <c r="AP237" t="s" s="2">
         <v>82</v>
@@ -31807,10 +31798,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -31833,19 +31824,19 @@
         <v>82</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L238" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>929</v>
+      </c>
+      <c r="O238" t="s" s="2">
         <v>930</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="O238" t="s" s="2">
-        <v>933</v>
       </c>
       <c r="P238" t="s" s="2">
         <v>82</v>
@@ -31894,7 +31885,7 @@
         <v>82</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>80</v>
@@ -31909,19 +31900,19 @@
         <v>101</v>
       </c>
       <c r="AK238" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="AL238" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="AM238" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="AN238" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO238" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="AL238" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="AM238" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="AN238" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO238" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="AP238" t="s" s="2">
         <v>82</v>
@@ -31929,14 +31920,14 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
@@ -31955,16 +31946,16 @@
         <v>82</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>939</v>
+      </c>
+      <c r="N239" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>943</v>
       </c>
       <c r="O239" s="2"/>
       <c r="P239" t="s" s="2">
@@ -32014,7 +32005,7 @@
         <v>82</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>80</v>
@@ -32029,10 +32020,10 @@
         <v>101</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="AM239" t="s" s="2">
         <v>152</v>
@@ -32041,7 +32032,7 @@
         <v>82</v>
       </c>
       <c r="AO239" t="s" s="2">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="AP239" t="s" s="2">
         <v>82</v>
@@ -32049,10 +32040,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32078,16 +32069,16 @@
         <v>263</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="N240" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="O240" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>951</v>
       </c>
       <c r="P240" t="s" s="2">
         <v>82</v>
@@ -32136,7 +32127,7 @@
         <v>82</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>80</v>
@@ -32151,13 +32142,13 @@
         <v>101</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="AN240" t="s" s="2">
         <v>82</v>
@@ -32171,10 +32162,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -32197,19 +32188,19 @@
         <v>90</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="L241" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="O241" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>956</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>957</v>
-      </c>
-      <c r="O241" t="s" s="2">
-        <v>958</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>82</v>
@@ -32258,7 +32249,7 @@
         <v>82</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>80</v>
@@ -32276,7 +32267,7 @@
         <v>82</v>
       </c>
       <c r="AL241" t="s" s="2">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="AM241" t="s" s="2">
         <v>152</v>
@@ -32293,10 +32284,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -32411,10 +32402,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -32531,14 +32522,14 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" t="s" s="2">
@@ -32560,10 +32551,10 @@
         <v>134</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="N244" t="s" s="2">
         <v>158</v>
@@ -32618,7 +32609,7 @@
         <v>82</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>80</v>
@@ -32653,10 +32644,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -32679,16 +32670,16 @@
         <v>90</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="M245" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="N245" t="s" s="2">
         <v>964</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>965</v>
-      </c>
-      <c r="M245" t="s" s="2">
-        <v>966</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
@@ -32738,7 +32729,7 @@
         <v>82</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>89</v>
@@ -32765,7 +32756,7 @@
         <v>82</v>
       </c>
       <c r="AO245" t="s" s="2">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="AP245" t="s" s="2">
         <v>82</v>
@@ -32773,10 +32764,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -32802,10 +32793,10 @@
         <v>109</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -32835,10 +32826,10 @@
         <v>226</v>
       </c>
       <c r="Y246" t="s" s="2">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="Z246" t="s" s="2">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="AA246" t="s" s="2">
         <v>82</v>
@@ -32856,7 +32847,7 @@
         <v>82</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>89</v>
@@ -32874,7 +32865,7 @@
         <v>152</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="AM246" t="s" s="2">
         <v>152</v>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:04:55+00:00</t>
+    <t>2024-10-16T10:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -625,7 +625,7 @@
   </si>
   <si>
     <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegerinteger64markdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodeableReferenceCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioRatioRangeReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextAvailabilityExtendedContactDetailDosageMeta</t>
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Patient.extension:PatientReligion</t>
@@ -642,7 +642,7 @@
   </si>
   <si>
     <t>HL7® Austria FHIR® Core Extension for the religion (registered in Austria) of a patient.
-The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [HL7 AT CodeSystem](https://termpub.gesundheit.gv.at:443/TermBrowser/gui/main/main.zul?loadType=CodeSystem&amp;loadName=HL7 AT ReligionAustria) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
+The extension is used to encode the religious confession of a patient (only confessions registered in Austria). Furthermore, it uses the official [HL7 AT CodeSystem](https://build.fhir.org/ig/HL7Austria/HL7-AT-FHIR-Core-R4/https://termpub.gesundheit.gv.at:443/TermBrowser/gui/main/main.zul?loadType=CodeSystem&amp;loadName=HL7 AT ReligionAustria) for religion and is therefore aligned with the ELGA ValueSet, respectively.</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
